--- a/upload/allowance_20250420.xlsx
+++ b/upload/allowance_20250420.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waylin\mydjango\e_invoice\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976E64E5-57D5-4138-B99A-0DCCA0303EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C1CB8D-BFD3-401D-89C9-5B401D7513E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1EE46CE-80D5-4725-834D-3E2FE76FD152}"/>
   </bookViews>
@@ -614,8 +614,8 @@
   </sheetPr>
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -745,10 +745,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="5">
-        <v>2881.9</v>
+        <v>2581.9</v>
       </c>
       <c r="M2" s="5">
-        <v>57638</v>
+        <v>51638</v>
       </c>
       <c r="N2" s="5">
         <v>1</v>
@@ -805,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="5">
-        <v>2881.9</v>
+        <v>2581.9</v>
       </c>
       <c r="M3" s="5">
-        <v>57638</v>
+        <v>51638</v>
       </c>
       <c r="N3" s="5">
         <v>2</v>
@@ -846,10 +846,10 @@
         <v>11404</v>
       </c>
       <c r="B4" s="5">
-        <v>87637805</v>
+        <v>87637806</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
         <v>45767</v>
@@ -864,13 +864,13 @@
         <v>1</v>
       </c>
       <c r="L4" s="5">
-        <v>2881.9</v>
+        <v>300</v>
       </c>
       <c r="M4" s="5">
-        <v>57638</v>
+        <v>11733</v>
       </c>
       <c r="N4" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O4" s="9">
         <v>45786</v>
